--- a/Supplementary Data1.xlsx
+++ b/Supplementary Data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/yzw0093_auburn_edu/Documents/paper/A ecology/Finial paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/yzw0093_auburn_edu/Documents/paper/Github Mosquito Model/Mosquito-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A8B3061-B200-491A-B35B-A476D6160A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{4A8B3061-B200-491A-B35B-A476D6160A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67025B4F-84CE-4DA7-83C9-6886854C4839}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data for whole model" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="279">
   <si>
     <t>city</t>
   </si>
@@ -754,9 +754,6 @@
     <t xml:space="preserve">Only come one time this month </t>
   </si>
   <si>
-    <t>unknow</t>
-  </si>
-  <si>
     <t>set up the container near the gas station</t>
   </si>
   <si>
@@ -909,28 +906,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -942,7 +939,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -978,8 +975,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,12 +998,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,48 +1072,20 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,7 +1096,7 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1138,14 +1108,41 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1425,11 +1422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11584,6 +11581,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11596,884 +11594,891 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="1.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="1.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9" style="9"/>
-    <col min="13" max="13" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="10.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="1.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="1.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9" style="7"/>
+    <col min="13" max="13" width="12.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>7403</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>1795</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>4363</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <f t="shared" ref="F2:F8" si="0">SUM(B2:D2)</f>
         <v>13561</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>13561</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="7">
         <v>11520</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>536</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>105</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>42</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>12161</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>12161</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="7">
         <v>12642</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>899</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>200</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>13741</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>13741</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="7">
         <v>7160</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>784</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>1602</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>16</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>9546</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>9546</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="7">
         <v>1999</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>582</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>88</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>2669</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="7">
         <v>535</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="7">
         <v>1881</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>1881</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="10" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12" t="s">
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="25" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="25"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="18" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L13" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="21">
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11">
         <v>7403</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="12">
         <f>B14/M14</f>
         <v>0.54586344197021086</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="21">
+      <c r="D14" s="8"/>
+      <c r="E14" s="11">
         <v>1795</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="12">
         <f>E14/M14</f>
         <v>0.13235510986580151</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="21">
+      <c r="G14" s="8"/>
+      <c r="H14" s="11">
         <v>4363</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="12">
         <f>H14/M14</f>
         <v>0.32170771272673648</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="21">
+      <c r="J14" s="8"/>
+      <c r="K14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="12">
         <f>K14/M14</f>
         <v>7.3735437251142897E-5</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="13">
         <f>SUM(B14,E14,H14,K14)</f>
         <v>13562</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="11">
         <v>11520</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="12">
         <f t="shared" ref="C15:C20" si="1">B15/M15</f>
         <v>0.94403015651888877</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="21">
+      <c r="D15" s="8"/>
+      <c r="E15" s="11">
         <v>536</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="12">
         <f t="shared" ref="F15:F20" si="2">E15/M15</f>
         <v>4.3923625338031631E-2</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="21">
+      <c r="G15" s="8"/>
+      <c r="H15" s="11">
         <v>105</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="12">
         <f t="shared" ref="I15:I20" si="3">H15/M15</f>
         <v>8.6044415307711224E-3</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="21">
+      <c r="J15" s="8"/>
+      <c r="K15" s="11">
         <v>42</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="12">
         <f t="shared" ref="L15:L20" si="4">K15/M15</f>
         <v>3.4417766123084489E-3</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="13">
         <f t="shared" ref="M15:M20" si="5">SUM(B15,E15,H15,K15)</f>
         <v>12203</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="11">
         <v>12642</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="12">
         <f t="shared" si="1"/>
         <v>0.91968572675687477</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="21">
+      <c r="D16" s="8"/>
+      <c r="E16" s="11">
         <v>899</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="12">
         <f t="shared" si="2"/>
         <v>6.5400843881856546E-2</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="21">
+      <c r="G16" s="8"/>
+      <c r="H16" s="11">
         <v>200</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="12">
         <f t="shared" si="3"/>
         <v>1.4549687181725593E-2</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="21">
+      <c r="J16" s="8"/>
+      <c r="K16" s="11">
         <v>5</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="12">
         <f t="shared" si="4"/>
         <v>3.6374217954313981E-4</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="13">
         <f t="shared" si="5"/>
         <v>13746</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="11">
         <v>7160</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="12">
         <f t="shared" si="1"/>
         <v>0.74879732273582933</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="21">
+      <c r="D17" s="8"/>
+      <c r="E17" s="11">
         <v>784</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="12">
         <f t="shared" si="2"/>
         <v>8.1991215226939973E-2</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="21">
+      <c r="G17" s="8"/>
+      <c r="H17" s="11">
         <v>1602</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="12">
         <f t="shared" si="3"/>
         <v>0.16753817193055845</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="21">
+      <c r="J17" s="8"/>
+      <c r="K17" s="11">
         <v>16</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="12">
         <f t="shared" si="4"/>
         <v>1.6732901066722444E-3</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="13">
         <f t="shared" si="5"/>
         <v>9562</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="21">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="11">
         <v>1999</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="12">
         <f t="shared" si="1"/>
         <v>0.74896965155488948</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="21">
+      <c r="D18" s="8"/>
+      <c r="E18" s="11">
         <v>582</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="12">
         <f t="shared" si="2"/>
         <v>0.21805919820157363</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="21">
+      <c r="G18" s="8"/>
+      <c r="H18" s="11">
         <v>88</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="12">
         <f t="shared" si="3"/>
         <v>3.2971150243536904E-2</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="21">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
+      <c r="J18" s="8"/>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="13">
         <f t="shared" si="5"/>
         <v>2669</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="21">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="11">
         <v>535</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="21">
-        <v>0</v>
-      </c>
-      <c r="F19" s="22">
+      <c r="D19" s="8"/>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="21">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="G19" s="8"/>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="21">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
+      <c r="J19" s="8"/>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="13">
         <f t="shared" si="5"/>
         <v>535</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B20" s="21">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="11">
         <v>1881</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="21">
-        <v>0</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="D20" s="8"/>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="G20" s="8"/>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="21">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
+      <c r="J20" s="8"/>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="13">
         <f t="shared" si="5"/>
         <v>1881</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="25">
+    <row r="21" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="15">
         <f>SUM(B14:B20)</f>
         <v>43140</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="16">
         <f>B21/M21</f>
         <v>0.7965582185457365</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
         <f>SUM(E14:E20)</f>
         <v>4596</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="16">
         <f>E21/M21</f>
         <v>8.486280881864175E-2</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15">
         <f>SUM(H14:H20)</f>
         <v>6358</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="16">
         <f>H21/M21</f>
         <v>0.11739724509767717</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25">
+      <c r="J21" s="15"/>
+      <c r="K21" s="15">
         <f>SUM(K14:K20)</f>
         <v>64</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="16">
         <f>K21/M21</f>
         <v>1.1817275379445327E-3</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="17">
         <f>SUM(M14:M20)</f>
         <v>54158</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+    <row r="22" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="25" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="14" t="s">
+      <c r="I27" s="25"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="14" t="s">
+      <c r="L27" s="25"/>
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="18" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="18" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="18" t="s">
+      <c r="J28" s="8"/>
+      <c r="K28" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="21">
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="11">
         <v>7403</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="12">
         <f>B29/M29</f>
         <v>0.54586344197021086</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="21">
+      <c r="D29" s="8"/>
+      <c r="E29" s="11">
         <v>1795</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="12">
         <f>E29/M29</f>
         <v>0.13235510986580151</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="21">
+      <c r="G29" s="8"/>
+      <c r="H29" s="11">
         <v>4363</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="12">
         <f>H29/M29</f>
         <v>0.32170771272673648</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="21">
+      <c r="J29" s="8"/>
+      <c r="K29" s="11">
         <v>1</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="12">
         <f>K29/M29</f>
         <v>7.3735437251142897E-5</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="13">
         <f>SUM(B29,E29,H29,K29)</f>
         <v>13562</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="11">
         <v>11520</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="12">
         <f t="shared" ref="C30:C32" si="6">B30/M30</f>
         <v>0.94403015651888877</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="21">
+      <c r="D30" s="8"/>
+      <c r="E30" s="11">
         <v>536</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="12">
         <f t="shared" ref="F30:F32" si="7">E30/M30</f>
         <v>4.3923625338031631E-2</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="21">
+      <c r="G30" s="8"/>
+      <c r="H30" s="11">
         <v>105</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="12">
         <f t="shared" ref="I30:I32" si="8">H30/M30</f>
         <v>8.6044415307711224E-3</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="21">
+      <c r="J30" s="8"/>
+      <c r="K30" s="11">
         <v>42</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="12">
         <f t="shared" ref="L30:L32" si="9">K30/M30</f>
         <v>3.4417766123084489E-3</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="13">
         <f t="shared" ref="M30:M32" si="10">SUM(B30,E30,H30,K30)</f>
         <v>12203</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="11">
         <v>12642</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="12">
         <f t="shared" si="6"/>
         <v>0.91968572675687477</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="21">
+      <c r="D31" s="8"/>
+      <c r="E31" s="11">
         <v>899</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="12">
         <f t="shared" si="7"/>
         <v>6.5400843881856546E-2</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="21">
+      <c r="G31" s="8"/>
+      <c r="H31" s="11">
         <v>200</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="12">
         <f t="shared" si="8"/>
         <v>1.4549687181725593E-2</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="21">
+      <c r="J31" s="8"/>
+      <c r="K31" s="11">
         <v>5</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L31" s="12">
         <f t="shared" si="9"/>
         <v>3.6374217954313981E-4</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="13">
         <f t="shared" si="10"/>
         <v>13746</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="11">
         <v>7160</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="12">
         <f t="shared" si="6"/>
         <v>0.74879732273582933</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="21">
+      <c r="D32" s="8"/>
+      <c r="E32" s="11">
         <v>784</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="12">
         <f t="shared" si="7"/>
         <v>8.1991215226939973E-2</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="21">
+      <c r="G32" s="8"/>
+      <c r="H32" s="11">
         <v>1602</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="12">
         <f t="shared" si="8"/>
         <v>0.16753817193055845</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="21">
+      <c r="J32" s="8"/>
+      <c r="K32" s="11">
         <v>16</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="12">
         <f t="shared" si="9"/>
         <v>1.6732901066722444E-3</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="13">
         <f t="shared" si="10"/>
         <v>9562</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="B33" s="25">
+    <row r="33" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" s="15">
         <f>SUM(B29:B32)</f>
         <v>38725</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="16">
         <f>B33/M33</f>
         <v>0.7891304790821837</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15">
         <f>SUM(E29:E32)</f>
         <v>4014</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="16">
         <f>E33/M33</f>
         <v>8.1796507244309494E-2</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25">
+      <c r="G33" s="15"/>
+      <c r="H33" s="15">
         <f>SUM(H29:H32)</f>
         <v>6270</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="16">
         <f>H33/M33</f>
         <v>0.12776883418580481</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25">
+      <c r="J33" s="15"/>
+      <c r="K33" s="15">
         <f>SUM(K29:K32)</f>
         <v>64</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="16">
         <f>K33/M33</f>
         <v>1.304179487701995E-3</v>
       </c>
-      <c r="M33" s="27">
+      <c r="M33" s="17">
         <f>SUM(M29:M32)</f>
         <v>49073</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="M26:M28"/>
@@ -12481,14 +12486,8 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K12:L12"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12501,19 +12500,19 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" t="s">
         <v>256</v>
-      </c>
-      <c r="B1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2">
         <v>255.37037037037038</v>
@@ -12521,7 +12520,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3">
         <v>254.46296296296296</v>
@@ -12529,7 +12528,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4">
         <v>240.61111111111111</v>
@@ -12537,13 +12536,14 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5">
         <v>180.11320754716982</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12552,13 +12552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668FD3D-2C87-4585-97A6-92D7C279A884}">
   <dimension ref="A1:U265"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="G231" sqref="G179:G231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12623,6 +12623,9 @@
         <f>SUM(C2:E2)</f>
         <v>229</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2">
         <f t="shared" ref="H2:H84" si="0">F2/M2</f>
         <v>229</v>
@@ -12670,6 +12673,9 @@
         <f t="shared" ref="F3:F88" si="1">SUM(C3:E3)</f>
         <v>677</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <f t="shared" si="0"/>
         <v>338.5</v>
@@ -12717,6 +12723,9 @@
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -12764,6 +12773,9 @@
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>91.5</v>
@@ -12811,6 +12823,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12858,6 +12873,9 @@
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>140.5</v>
@@ -12905,6 +12923,9 @@
         <f t="shared" si="1"/>
         <v>387</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>193.5</v>
@@ -12952,6 +12973,9 @@
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>90.5</v>
@@ -12999,6 +13023,9 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10">
         <f t="shared" si="0"/>
         <v>24.5</v>
@@ -13046,6 +13073,9 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -13072,7 +13102,7 @@
       <c r="O11">
         <v>2</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>223</v>
       </c>
     </row>
@@ -13096,6 +13126,9 @@
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="H12">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -13143,6 +13176,9 @@
         <f t="shared" si="1"/>
         <v>307</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13">
         <f t="shared" si="0"/>
         <v>76.75</v>
@@ -13190,6 +13226,9 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="H14">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -13240,6 +13279,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13287,6 +13329,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13334,6 +13379,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="H17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13381,6 +13429,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="H18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13428,6 +13479,9 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
       <c r="H19">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13454,7 +13508,7 @@
       <c r="O19">
         <v>2</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -13478,7 +13532,7 @@
         <f t="shared" si="1"/>
         <v>576</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20">
@@ -13528,6 +13582,9 @@
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
       <c r="H21">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -13575,6 +13632,9 @@
         <f t="shared" si="1"/>
         <v>553</v>
       </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
       <c r="H22">
         <f t="shared" si="0"/>
         <v>138.25</v>
@@ -13622,6 +13682,9 @@
         <f t="shared" si="1"/>
         <v>595</v>
       </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
       <c r="H23">
         <f t="shared" si="0"/>
         <v>148.75</v>
@@ -13669,6 +13732,9 @@
         <f t="shared" si="1"/>
         <v>1194</v>
       </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
       <c r="H24">
         <f t="shared" si="0"/>
         <v>298.5</v>
@@ -13716,6 +13782,9 @@
         <f t="shared" si="1"/>
         <v>541</v>
       </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
       <c r="H25">
         <f t="shared" si="0"/>
         <v>135.25</v>
@@ -13763,6 +13832,9 @@
         <f>SUM(C26:E26)</f>
         <v>6</v>
       </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
       <c r="H26">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13789,7 +13861,7 @@
       <c r="O26">
         <v>2</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13813,6 +13885,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -13850,6 +13925,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
       <c r="H28">
         <v>0</v>
       </c>
@@ -13885,6 +13963,9 @@
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
@@ -13924,6 +14005,9 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>15.5</v>
@@ -13971,6 +14055,9 @@
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
       <c r="H31">
         <f t="shared" si="0"/>
         <v>66.25</v>
@@ -13997,7 +14084,7 @@
       <c r="O31">
         <v>2</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14021,6 +14108,9 @@
         <f t="shared" si="1"/>
         <v>643</v>
       </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
       <c r="H32">
         <f t="shared" si="0"/>
         <v>160.75</v>
@@ -14068,6 +14158,9 @@
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
       <c r="H33">
         <f t="shared" si="0"/>
         <v>113.5</v>
@@ -14115,6 +14208,9 @@
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
       <c r="H34">
         <f t="shared" si="0"/>
         <v>83.5</v>
@@ -14162,6 +14258,9 @@
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
       <c r="H35">
         <f t="shared" si="0"/>
         <v>51.5</v>
@@ -14212,6 +14311,9 @@
         <f t="shared" si="1"/>
         <v>311</v>
       </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
       <c r="H36">
         <f t="shared" si="0"/>
         <v>77.75</v>
@@ -14259,6 +14361,9 @@
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
       <c r="H37">
         <f t="shared" si="0"/>
         <v>76.25</v>
@@ -14306,6 +14411,9 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
       <c r="H38">
         <f t="shared" si="0"/>
         <v>32.5</v>
@@ -14353,6 +14461,9 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
       <c r="H39">
         <f t="shared" si="0"/>
         <v>15.5</v>
@@ -14400,6 +14511,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
       <c r="H40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14447,6 +14561,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
       <c r="H41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -14494,6 +14611,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
       <c r="H42">
         <f t="shared" si="0"/>
         <v>4.25</v>
@@ -14541,6 +14661,9 @@
         <f t="shared" si="1"/>
         <v>658</v>
       </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
       <c r="H43">
         <f t="shared" si="0"/>
         <v>164.5</v>
@@ -14588,6 +14711,9 @@
         <f t="shared" si="1"/>
         <v>696</v>
       </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
       <c r="H44">
         <f t="shared" si="0"/>
         <v>174</v>
@@ -14635,6 +14761,9 @@
         <f t="shared" si="1"/>
         <v>665</v>
       </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
       <c r="H45">
         <f t="shared" si="0"/>
         <v>166.25</v>
@@ -14682,6 +14811,9 @@
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
       <c r="H46">
         <f t="shared" si="0"/>
         <v>64.5</v>
@@ -14732,6 +14864,9 @@
         <f t="shared" si="1"/>
         <v>389</v>
       </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
       <c r="H47">
         <f t="shared" si="0"/>
         <v>97.25</v>
@@ -14779,6 +14914,9 @@
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
       <c r="H48">
         <f t="shared" si="0"/>
         <v>65.75</v>
@@ -14826,6 +14964,9 @@
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
       <c r="H49">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -14873,6 +15014,9 @@
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
       <c r="H50">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -14920,6 +15064,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
       <c r="H51">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -14967,6 +15114,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
       <c r="H52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15014,6 +15164,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
       <c r="H53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15061,6 +15214,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
       <c r="H54">
         <f t="shared" si="0"/>
         <v>1.5</v>
@@ -15108,6 +15264,9 @@
         <f t="shared" si="1"/>
         <v>623</v>
       </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
       <c r="H55">
         <f t="shared" si="0"/>
         <v>155.75</v>
@@ -15214,7 +15373,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F58">
         <f>AVERAGE(F2:F55)</f>
@@ -15264,6 +15423,9 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
       <c r="H60">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -15311,6 +15473,9 @@
         <f t="shared" si="1"/>
         <v>733</v>
       </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
       <c r="H61">
         <f t="shared" si="0"/>
         <v>366.5</v>
@@ -15358,6 +15523,9 @@
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
       <c r="H62">
         <f t="shared" si="0"/>
         <v>179.5</v>
@@ -15405,6 +15573,9 @@
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
       <c r="H63">
         <f t="shared" si="0"/>
         <v>105.5</v>
@@ -15452,6 +15623,9 @@
         <f>SUM(C64:E64)</f>
         <v>0</v>
       </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
       <c r="H64">
         <v>0</v>
       </c>
@@ -15492,6 +15666,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
       <c r="H65">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -15539,6 +15716,9 @@
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
       <c r="H66">
         <f t="shared" si="0"/>
         <v>230</v>
@@ -15586,6 +15766,9 @@
         <f t="shared" si="1"/>
         <v>387</v>
       </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
       <c r="H67">
         <f t="shared" si="0"/>
         <v>193.5</v>
@@ -15633,7 +15816,7 @@
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>5</v>
       </c>
       <c r="H68">
@@ -15683,6 +15866,9 @@
         <f t="shared" si="1"/>
         <v>711</v>
       </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
       <c r="H69">
         <f t="shared" si="0"/>
         <v>355.5</v>
@@ -15730,6 +15916,9 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
       <c r="H70">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -15777,6 +15966,9 @@
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
       <c r="H71">
         <f t="shared" si="0"/>
         <v>133</v>
@@ -15824,6 +16016,9 @@
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
       <c r="H72">
         <f t="shared" si="0"/>
         <v>297</v>
@@ -15871,6 +16066,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
       <c r="H73">
         <v>0</v>
       </c>
@@ -15908,6 +16106,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
       <c r="H74">
         <v>0</v>
       </c>
@@ -15945,6 +16146,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
       <c r="H75">
         <v>0</v>
       </c>
@@ -15982,6 +16186,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
       <c r="H76">
         <v>0</v>
       </c>
@@ -16019,6 +16226,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
       <c r="H77">
         <v>0</v>
       </c>
@@ -16056,6 +16266,9 @@
         <f t="shared" si="1"/>
         <v>867</v>
       </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
       <c r="H78">
         <f t="shared" si="0"/>
         <v>433.5</v>
@@ -16103,6 +16316,9 @@
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
       <c r="H79">
         <f t="shared" si="0"/>
         <v>163.5</v>
@@ -16150,7 +16366,7 @@
         <f t="shared" si="1"/>
         <v>895</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="3">
         <v>1</v>
       </c>
       <c r="H80">
@@ -16200,6 +16416,9 @@
         <f t="shared" si="1"/>
         <v>549</v>
       </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
       <c r="H81">
         <f t="shared" si="0"/>
         <v>274.5</v>
@@ -16247,6 +16466,9 @@
         <f t="shared" si="1"/>
         <v>789</v>
       </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
       <c r="H82">
         <f t="shared" si="0"/>
         <v>394.5</v>
@@ -16294,6 +16516,9 @@
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
       <c r="H83">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -16341,6 +16566,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
       <c r="H84">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -16388,6 +16616,9 @@
         <f>SUM(C85:E85)</f>
         <v>0</v>
       </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
       <c r="H85">
         <v>0</v>
       </c>
@@ -16425,6 +16656,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
       <c r="H86">
         <v>0</v>
       </c>
@@ -16462,6 +16696,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
       <c r="H87">
         <v>0</v>
       </c>
@@ -16499,6 +16736,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
       <c r="H88">
         <f t="shared" ref="H88:H190" si="10">F88/M88</f>
         <v>0</v>
@@ -16546,6 +16786,9 @@
         <f t="shared" ref="F89:F118" si="11">SUM(C89:E89)</f>
         <v>149</v>
       </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
       <c r="H89">
         <f t="shared" si="10"/>
         <v>74.5</v>
@@ -16593,6 +16836,9 @@
         <f t="shared" si="11"/>
         <v>287</v>
       </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
       <c r="H90">
         <f t="shared" si="10"/>
         <v>71.75</v>
@@ -16619,7 +16865,7 @@
       <c r="O90">
         <v>2</v>
       </c>
-      <c r="P90" s="4" t="s">
+      <c r="P90" s="3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -16643,6 +16889,9 @@
         <f t="shared" si="11"/>
         <v>474</v>
       </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
       <c r="H91">
         <f t="shared" si="10"/>
         <v>118.5</v>
@@ -16690,6 +16939,9 @@
         <f t="shared" si="11"/>
         <v>258</v>
       </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
       <c r="H92">
         <f t="shared" si="10"/>
         <v>64.5</v>
@@ -16737,6 +16989,9 @@
         <f t="shared" si="11"/>
         <v>432</v>
       </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
       <c r="H93">
         <f t="shared" si="10"/>
         <v>72</v>
@@ -16787,7 +17042,7 @@
         <f t="shared" si="11"/>
         <v>379</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="3">
         <v>1</v>
       </c>
       <c r="H94">
@@ -16837,7 +17092,9 @@
         <f t="shared" si="11"/>
         <v>570</v>
       </c>
-      <c r="G95" s="4"/>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
       <c r="H95">
         <f t="shared" si="10"/>
         <v>142.5</v>
@@ -16885,7 +17142,9 @@
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
-      <c r="G96" s="4"/>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
       <c r="H96">
         <f t="shared" si="10"/>
         <v>10.5</v>
@@ -16933,7 +17192,9 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="G97" s="4"/>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
       <c r="H97">
         <f t="shared" si="10"/>
         <v>3</v>
@@ -16981,7 +17242,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G98" s="4"/>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
       <c r="H98">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -17029,7 +17292,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G99" s="4"/>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
       <c r="H99">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -17077,7 +17342,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G100" s="4"/>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
       <c r="H100">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -17125,7 +17392,9 @@
         <f t="shared" si="11"/>
         <v>116</v>
       </c>
-      <c r="G101" s="4"/>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
       <c r="H101">
         <f t="shared" si="10"/>
         <v>29</v>
@@ -17173,7 +17442,9 @@
         <f t="shared" si="11"/>
         <v>551</v>
       </c>
-      <c r="G102" s="4"/>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
       <c r="H102">
         <f t="shared" si="10"/>
         <v>137.75</v>
@@ -17221,7 +17492,9 @@
         <f t="shared" si="11"/>
         <v>520</v>
       </c>
-      <c r="G103" s="4"/>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
       <c r="H103">
         <f t="shared" si="10"/>
         <v>130</v>
@@ -17269,7 +17542,9 @@
         <f t="shared" si="11"/>
         <v>124</v>
       </c>
-      <c r="G104" s="4"/>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
       <c r="H104">
         <f t="shared" si="10"/>
         <v>62</v>
@@ -17320,7 +17595,9 @@
         <f t="shared" si="11"/>
         <v>369</v>
       </c>
-      <c r="G105" s="4"/>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
       <c r="H105">
         <f t="shared" si="10"/>
         <v>92.25</v>
@@ -17418,6 +17695,9 @@
         <f t="shared" si="11"/>
         <v>398</v>
       </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
       <c r="H107">
         <f t="shared" si="10"/>
         <v>99.5</v>
@@ -17465,6 +17745,9 @@
         <f t="shared" si="11"/>
         <v>146</v>
       </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
       <c r="H108">
         <f t="shared" si="10"/>
         <v>36.5</v>
@@ -17512,6 +17795,9 @@
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
       <c r="H109">
         <f t="shared" si="10"/>
         <v>6.5</v>
@@ -17559,6 +17845,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
       <c r="H110">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -17606,6 +17895,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
       <c r="H111">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -17653,6 +17945,9 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
       <c r="H112">
         <f t="shared" si="10"/>
         <v>1.5</v>
@@ -17809,7 +18104,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F116">
         <f>AVERAGE(F60:F113)</f>
@@ -17887,6 +18182,9 @@
         <f t="shared" ref="F120:F207" si="13">SUM(C120:E120)</f>
         <v>876</v>
       </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
       <c r="H120">
         <f t="shared" si="10"/>
         <v>438</v>
@@ -17913,7 +18211,7 @@
       <c r="O120">
         <v>2</v>
       </c>
-      <c r="P120" s="4" t="s">
+      <c r="P120" s="3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -17937,6 +18235,9 @@
         <f t="shared" si="13"/>
         <v>2142</v>
       </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
       <c r="H121">
         <f t="shared" si="10"/>
         <v>535.5</v>
@@ -17984,6 +18285,9 @@
         <f t="shared" si="13"/>
         <v>1660</v>
       </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
       <c r="H122">
         <f t="shared" si="10"/>
         <v>415</v>
@@ -18031,6 +18335,9 @@
         <f t="shared" si="13"/>
         <v>466</v>
       </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
       <c r="H123">
         <f t="shared" si="10"/>
         <v>116.5</v>
@@ -18078,6 +18385,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
       <c r="H124">
         <v>0</v>
       </c>
@@ -18118,6 +18428,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
       <c r="H125">
         <v>0</v>
       </c>
@@ -18158,6 +18471,9 @@
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
       <c r="H126">
         <f t="shared" si="10"/>
         <v>196</v>
@@ -18184,7 +18500,7 @@
       <c r="O126">
         <v>1</v>
       </c>
-      <c r="P126" s="4" t="s">
+      <c r="P126" s="3" t="s">
         <v>232</v>
       </c>
     </row>
@@ -18208,6 +18524,9 @@
         <f t="shared" si="13"/>
         <v>681</v>
       </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
       <c r="H127">
         <f t="shared" si="10"/>
         <v>340.5</v>
@@ -18255,7 +18574,7 @@
         <f t="shared" si="13"/>
         <v>148</v>
       </c>
-      <c r="G128" s="4">
+      <c r="G128" s="3">
         <v>2</v>
       </c>
       <c r="H128">
@@ -18305,6 +18624,9 @@
         <f t="shared" si="13"/>
         <v>306</v>
       </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
       <c r="H129">
         <f t="shared" si="10"/>
         <v>153</v>
@@ -18352,6 +18674,9 @@
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
       <c r="H130">
         <f t="shared" si="10"/>
         <v>378</v>
@@ -18399,6 +18724,9 @@
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
       <c r="H131">
         <f t="shared" si="10"/>
         <v>187</v>
@@ -18446,6 +18774,9 @@
         <f t="shared" si="13"/>
         <v>357</v>
       </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
       <c r="H132">
         <f t="shared" si="10"/>
         <v>357</v>
@@ -18493,6 +18824,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
       <c r="H133">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18540,6 +18874,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
       <c r="H134">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18587,6 +18924,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
       <c r="H135">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18634,6 +18974,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
       <c r="H136">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18681,6 +19024,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
       <c r="H137">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -18728,6 +19074,9 @@
         <f t="shared" si="13"/>
         <v>464</v>
       </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
       <c r="H138">
         <f t="shared" si="10"/>
         <v>232</v>
@@ -18775,6 +19124,9 @@
         <f t="shared" si="13"/>
         <v>130</v>
       </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
       <c r="H139">
         <f t="shared" si="10"/>
         <v>65</v>
@@ -18822,6 +19174,9 @@
         <f t="shared" si="13"/>
         <v>458</v>
       </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
       <c r="H140">
         <f t="shared" si="10"/>
         <v>229</v>
@@ -18869,6 +19224,9 @@
         <f t="shared" si="13"/>
         <v>1134</v>
       </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
       <c r="H141">
         <f t="shared" si="10"/>
         <v>567</v>
@@ -18916,7 +19274,7 @@
         <f t="shared" si="13"/>
         <v>698</v>
       </c>
-      <c r="G142" s="4">
+      <c r="G142" s="3">
         <v>3</v>
       </c>
       <c r="H142">
@@ -18966,6 +19324,9 @@
         <f>SUM(C143:E143)</f>
         <v>466</v>
       </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
       <c r="H143">
         <f t="shared" si="10"/>
         <v>233</v>
@@ -19013,6 +19374,9 @@
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
       <c r="H144">
         <f t="shared" si="10"/>
         <v>26</v>
@@ -19060,6 +19424,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
       <c r="H145">
         <v>0</v>
       </c>
@@ -19097,6 +19464,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
       <c r="H146">
         <v>0</v>
       </c>
@@ -19134,6 +19504,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
       <c r="H147">
         <v>0</v>
       </c>
@@ -19171,6 +19544,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
       <c r="H148">
         <v>0</v>
       </c>
@@ -19193,7 +19569,7 @@
       <c r="O148">
         <v>0</v>
       </c>
-      <c r="P148" s="4" t="s">
+      <c r="P148" s="3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -19217,6 +19593,9 @@
         <f t="shared" si="13"/>
         <v>126</v>
       </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
       <c r="H149">
         <f t="shared" si="10"/>
         <v>63</v>
@@ -19264,6 +19643,9 @@
         <f t="shared" si="13"/>
         <v>91</v>
       </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
       <c r="H150">
         <f t="shared" si="10"/>
         <v>22.75</v>
@@ -19290,7 +19672,7 @@
       <c r="O150">
         <v>2</v>
       </c>
-      <c r="P150" s="4" t="s">
+      <c r="P150" s="3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -19314,6 +19696,9 @@
         <f t="shared" si="13"/>
         <v>302</v>
       </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
       <c r="H151">
         <f t="shared" si="10"/>
         <v>75.5</v>
@@ -19361,6 +19746,9 @@
         <f t="shared" si="13"/>
         <v>205</v>
       </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
       <c r="H152">
         <f t="shared" si="10"/>
         <v>51.25</v>
@@ -19408,6 +19796,9 @@
         <f t="shared" si="13"/>
         <v>205</v>
       </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
       <c r="H153">
         <f t="shared" si="10"/>
         <v>34.166666666666664</v>
@@ -19458,6 +19849,9 @@
         <f t="shared" si="13"/>
         <v>532</v>
       </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
       <c r="H154">
         <f t="shared" si="10"/>
         <v>133</v>
@@ -19505,6 +19899,9 @@
         <f t="shared" si="13"/>
         <v>175</v>
       </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
       <c r="H155">
         <f t="shared" si="10"/>
         <v>43.75</v>
@@ -19552,6 +19949,9 @@
         <f t="shared" si="13"/>
         <v>83</v>
       </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
       <c r="H156">
         <f t="shared" si="10"/>
         <v>41.5</v>
@@ -19578,7 +19978,7 @@
       <c r="O156">
         <v>1</v>
       </c>
-      <c r="P156" s="4" t="s">
+      <c r="P156" s="3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -19602,6 +20002,9 @@
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
       <c r="H157">
         <f t="shared" si="10"/>
         <v>2.5</v>
@@ -19649,6 +20052,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
       <c r="H158">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19696,6 +20102,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
       <c r="H159">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -19743,6 +20152,9 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
       <c r="H160">
         <f t="shared" si="10"/>
         <v>0.25</v>
@@ -19769,7 +20181,7 @@
       <c r="O160">
         <v>2</v>
       </c>
-      <c r="P160" s="5" t="s">
+      <c r="P160" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -19793,6 +20205,9 @@
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
       <c r="H161">
         <f t="shared" si="10"/>
         <v>17.5</v>
@@ -19840,6 +20255,9 @@
         <f t="shared" si="13"/>
         <v>124</v>
       </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
       <c r="H162">
         <f t="shared" si="10"/>
         <v>31</v>
@@ -19887,6 +20305,9 @@
         <f t="shared" si="13"/>
         <v>184</v>
       </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
       <c r="H163">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -19934,6 +20355,9 @@
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
       <c r="H164">
         <f t="shared" si="10"/>
         <v>35</v>
@@ -19984,6 +20408,9 @@
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
       <c r="H165">
         <f t="shared" si="10"/>
         <v>7.5</v>
@@ -20031,6 +20458,9 @@
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
       <c r="H166">
         <f t="shared" si="10"/>
         <v>16.75</v>
@@ -20078,6 +20508,9 @@
         <f t="shared" si="13"/>
         <v>237</v>
       </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
       <c r="H167">
         <f t="shared" si="10"/>
         <v>59.25</v>
@@ -20125,6 +20558,9 @@
         <f t="shared" si="13"/>
         <v>55</v>
       </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
       <c r="H168">
         <f t="shared" si="10"/>
         <v>13.75</v>
@@ -20172,6 +20608,9 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
       <c r="H169">
         <f t="shared" si="10"/>
         <v>0.25</v>
@@ -20219,6 +20658,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
       <c r="H170">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -20266,6 +20708,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
       <c r="H171">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -20313,6 +20758,9 @@
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
       <c r="H172">
         <f t="shared" si="10"/>
         <v>1.5</v>
@@ -20360,6 +20808,9 @@
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
       <c r="H173">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -20434,11 +20885,11 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
-      <c r="U174" s="5"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
@@ -20471,7 +20922,7 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F176">
         <f>AVERAGE(F120:F173)</f>
@@ -20506,9 +20957,6 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G178" t="s">
-        <v>237</v>
-      </c>
       <c r="H178" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
@@ -20538,6 +20986,9 @@
         <f t="shared" si="13"/>
         <v>601</v>
       </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
       <c r="H179">
         <f t="shared" si="10"/>
         <v>300.5</v>
@@ -20564,8 +21015,8 @@
       <c r="O179">
         <v>1</v>
       </c>
-      <c r="P179" s="4" t="s">
-        <v>238</v>
+      <c r="P179" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -20588,6 +21039,9 @@
         <f t="shared" si="13"/>
         <v>633</v>
       </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
       <c r="H180">
         <f t="shared" si="10"/>
         <v>316.5</v>
@@ -20614,8 +21068,8 @@
       <c r="O180">
         <v>1</v>
       </c>
-      <c r="P180" s="4" t="s">
-        <v>239</v>
+      <c r="P180" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
@@ -20638,6 +21092,9 @@
         <f t="shared" si="13"/>
         <v>289</v>
       </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
       <c r="H181">
         <f t="shared" si="10"/>
         <v>144.5</v>
@@ -20685,6 +21142,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
       <c r="H182">
         <v>0</v>
       </c>
@@ -20704,8 +21164,8 @@
       <c r="N182">
         <v>1</v>
       </c>
-      <c r="P182" s="4" t="s">
-        <v>240</v>
+      <c r="P182" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -20728,6 +21188,9 @@
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
       <c r="H183">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -20775,6 +21238,9 @@
         <f t="shared" si="13"/>
         <v>423</v>
       </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
       <c r="H184">
         <f t="shared" si="10"/>
         <v>211.5</v>
@@ -20822,6 +21288,9 @@
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
       <c r="H185">
         <f t="shared" si="10"/>
         <v>187.5</v>
@@ -20869,6 +21338,9 @@
         <f t="shared" si="13"/>
         <v>282</v>
       </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
       <c r="H186">
         <f t="shared" si="10"/>
         <v>141</v>
@@ -20916,6 +21388,9 @@
         <f t="shared" si="13"/>
         <v>641</v>
       </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
       <c r="H187">
         <f t="shared" si="10"/>
         <v>160.25</v>
@@ -20963,6 +21438,9 @@
         <f t="shared" si="13"/>
         <v>166</v>
       </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
       <c r="H188">
         <f t="shared" si="10"/>
         <v>83</v>
@@ -21010,6 +21488,9 @@
         <f t="shared" si="13"/>
         <v>336</v>
       </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
       <c r="H189">
         <f t="shared" si="10"/>
         <v>84</v>
@@ -21057,6 +21538,9 @@
         <f t="shared" si="13"/>
         <v>91</v>
       </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
       <c r="H190">
         <f t="shared" si="10"/>
         <v>45.5</v>
@@ -21104,6 +21588,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
       <c r="H191">
         <v>0</v>
       </c>
@@ -21144,6 +21631,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
       <c r="H192">
         <v>0</v>
       </c>
@@ -21184,6 +21674,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
       <c r="H193">
         <v>0</v>
       </c>
@@ -21224,6 +21717,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
       <c r="H194">
         <v>0</v>
       </c>
@@ -21264,6 +21760,9 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
       <c r="H195">
         <f t="shared" ref="H195:H231" si="20">F195/M195</f>
         <v>0.25</v>
@@ -21311,6 +21810,9 @@
         <f t="shared" si="13"/>
         <v>340</v>
       </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
       <c r="H196">
         <f t="shared" si="20"/>
         <v>85</v>
@@ -21358,6 +21860,9 @@
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
       <c r="H197">
         <f t="shared" si="20"/>
         <v>96.25</v>
@@ -21405,6 +21910,9 @@
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
       <c r="H198">
         <f t="shared" si="20"/>
         <v>127.66666666666667</v>
@@ -21431,8 +21939,8 @@
       <c r="O198">
         <v>1.5</v>
       </c>
-      <c r="P198" s="4" t="s">
-        <v>241</v>
+      <c r="P198" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
@@ -21455,7 +21963,7 @@
         <f t="shared" si="13"/>
         <v>636</v>
       </c>
-      <c r="G199" s="4">
+      <c r="G199" s="3">
         <v>2</v>
       </c>
       <c r="H199">
@@ -21484,8 +21992,8 @@
       <c r="O199">
         <v>1.5</v>
       </c>
-      <c r="P199" s="4" t="s">
-        <v>242</v>
+      <c r="P199" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
@@ -21508,6 +22016,9 @@
         <f t="shared" si="13"/>
         <v>47</v>
       </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
       <c r="H200">
         <f t="shared" si="20"/>
         <v>11.75</v>
@@ -21555,6 +22066,9 @@
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
       <c r="H201">
         <f t="shared" si="20"/>
         <v>8</v>
@@ -21602,8 +22116,8 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G202" s="6">
-        <v>10</v>
+      <c r="G202">
+        <v>0</v>
       </c>
       <c r="H202">
         <f t="shared" si="20"/>
@@ -21652,6 +22166,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
       <c r="H203">
         <v>0</v>
       </c>
@@ -21692,6 +22209,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
       <c r="H204">
         <v>0</v>
       </c>
@@ -21729,6 +22249,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
       <c r="H205">
         <v>0</v>
       </c>
@@ -21766,6 +22289,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
       <c r="H206">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21813,6 +22339,9 @@
         <f t="shared" si="13"/>
         <v>38</v>
       </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
       <c r="H207">
         <f t="shared" si="20"/>
         <v>12.666666666666666</v>
@@ -21839,8 +22368,8 @@
       <c r="O207">
         <v>1.5</v>
       </c>
-      <c r="P207" s="4" t="s">
-        <v>243</v>
+      <c r="P207" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -21863,6 +22392,9 @@
         <f t="shared" ref="F208:F235" si="22">SUM(C208:E208)</f>
         <v>339</v>
       </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
       <c r="H208">
         <f t="shared" si="20"/>
         <v>84.75</v>
@@ -21889,7 +22421,7 @@
       <c r="O208">
         <v>2</v>
       </c>
-      <c r="P208" s="4" t="s">
+      <c r="P208" s="3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -21913,6 +22445,9 @@
         <f t="shared" si="22"/>
         <v>667</v>
       </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
       <c r="H209">
         <f t="shared" si="20"/>
         <v>166.75</v>
@@ -21960,6 +22495,9 @@
         <f t="shared" si="22"/>
         <v>518</v>
       </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
       <c r="H210">
         <f t="shared" si="20"/>
         <v>129.5</v>
@@ -22007,6 +22545,9 @@
         <f t="shared" si="22"/>
         <v>478</v>
       </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
       <c r="H211">
         <f t="shared" si="20"/>
         <v>79.666666666666671</v>
@@ -22057,7 +22598,7 @@
         <f t="shared" si="22"/>
         <v>395</v>
       </c>
-      <c r="G212" s="4">
+      <c r="G212" s="3">
         <v>1</v>
       </c>
       <c r="H212">
@@ -22107,7 +22648,9 @@
         <f t="shared" si="22"/>
         <v>45</v>
       </c>
-      <c r="G213" s="4"/>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
       <c r="H213">
         <f t="shared" si="20"/>
         <v>11.25</v>
@@ -22155,7 +22698,9 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="G214" s="4"/>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
       <c r="H214">
         <f t="shared" si="20"/>
         <v>0.25</v>
@@ -22203,7 +22748,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G215" s="4"/>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
       <c r="H215">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22251,7 +22798,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G216" s="4"/>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
       <c r="H216">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22299,7 +22848,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G217" s="4"/>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
       <c r="H217">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22347,7 +22898,9 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G218" s="4"/>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
       <c r="H218">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22395,7 +22948,9 @@
         <f t="shared" si="22"/>
         <v>39</v>
       </c>
-      <c r="G219" s="4"/>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
       <c r="H219">
         <f t="shared" si="20"/>
         <v>9.75</v>
@@ -22443,7 +22998,9 @@
         <f t="shared" si="22"/>
         <v>140</v>
       </c>
-      <c r="G220" s="4"/>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
       <c r="H220">
         <f t="shared" si="20"/>
         <v>35</v>
@@ -22491,7 +23048,9 @@
         <f t="shared" si="22"/>
         <v>231</v>
       </c>
-      <c r="G221" s="4"/>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
       <c r="H221">
         <f t="shared" si="20"/>
         <v>57.75</v>
@@ -22539,7 +23098,9 @@
         <f t="shared" si="22"/>
         <v>65</v>
       </c>
-      <c r="G222" s="4"/>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
       <c r="H222">
         <f t="shared" si="20"/>
         <v>32.5</v>
@@ -22590,7 +23151,9 @@
         <f t="shared" si="22"/>
         <v>92</v>
       </c>
-      <c r="G223" s="4"/>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
       <c r="H223">
         <f t="shared" si="20"/>
         <v>23</v>
@@ -22638,7 +23201,7 @@
         <f t="shared" si="22"/>
         <v>264</v>
       </c>
-      <c r="G224" s="4">
+      <c r="G224" s="3">
         <v>3</v>
       </c>
       <c r="H224">
@@ -22688,7 +23251,9 @@
         <f t="shared" si="22"/>
         <v>363</v>
       </c>
-      <c r="G225" s="4"/>
+      <c r="G225" s="3">
+        <v>0</v>
+      </c>
       <c r="H225">
         <f t="shared" si="20"/>
         <v>90.75</v>
@@ -22736,7 +23301,9 @@
         <f t="shared" si="22"/>
         <v>66</v>
       </c>
-      <c r="G226" s="4"/>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
       <c r="H226">
         <f t="shared" si="20"/>
         <v>16.5</v>
@@ -22783,7 +23350,9 @@
       <c r="F227">
         <v>0</v>
       </c>
-      <c r="G227" s="4"/>
+      <c r="G227" s="3">
+        <v>0</v>
+      </c>
       <c r="H227">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22831,6 +23400,9 @@
         <f t="shared" ref="F228:F231" si="23">SUM(C228:E228)</f>
         <v>0</v>
       </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
       <c r="H228">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22878,6 +23450,9 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
+      <c r="G229" s="3">
+        <v>0</v>
+      </c>
       <c r="H229">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22925,6 +23500,9 @@
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
+      <c r="G230" s="3">
+        <v>0</v>
+      </c>
       <c r="H230">
         <f t="shared" si="20"/>
         <v>1.5</v>
@@ -22972,6 +23550,9 @@
         <f t="shared" si="23"/>
         <v>108</v>
       </c>
+      <c r="G231" s="3">
+        <v>0</v>
+      </c>
       <c r="H231">
         <f t="shared" si="20"/>
         <v>27</v>
@@ -23024,7 +23605,7 @@
       </c>
       <c r="G232">
         <f>SUM(G179:G231)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H232">
         <f>AVERAGE(H179:H225)</f>
@@ -23113,7 +23694,7 @@
       </c>
       <c r="G237">
         <f>SUM(G56,G114,G174,G232)</f>
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
@@ -23125,23 +23706,23 @@
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C242">
         <f>C236/F242</f>
-        <v>0.7891304790821837</v>
+        <v>0.78929131932413432</v>
       </c>
       <c r="D242">
         <f>D236/F242</f>
-        <v>8.1796507244309494E-2</v>
+        <v>8.1813178973972236E-2</v>
       </c>
       <c r="E242">
         <f>E236/F242</f>
-        <v>0.12776883418580481</v>
+        <v>0.12779487597578623</v>
       </c>
       <c r="F242">
         <f>SUM(F238,G237)</f>
-        <v>49073</v>
+        <v>49063</v>
       </c>
       <c r="G242">
         <f>G237/F242</f>
-        <v>1.304179487701995E-3</v>
+        <v>1.1006257261072499E-3</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
@@ -23157,19 +23738,19 @@
       <c r="G248" t="s">
         <v>218</v>
       </c>
-      <c r="H248" s="7" t="s">
+      <c r="H248" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I248" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I248" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J248" s="7" t="s">
+      <c r="J248" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>3</v>
@@ -23189,22 +23770,22 @@
       <c r="G249">
         <v>629</v>
       </c>
-      <c r="H249" s="8">
+      <c r="H249" s="6">
         <f t="shared" ref="H249:H255" si="25">C249/G249</f>
         <v>0.10969793322734499</v>
       </c>
-      <c r="I249" s="8">
+      <c r="I249" s="6">
         <f t="shared" ref="I249:I255" si="26">D249/G249</f>
         <v>0.80922098569157397</v>
       </c>
-      <c r="J249" s="8">
+      <c r="J249" s="6">
         <f t="shared" ref="J249:J255" si="27">E249/G249</f>
         <v>8.1081081081081086E-2</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B250" t="s">
         <v>4</v>
@@ -23224,24 +23805,24 @@
       <c r="G250">
         <v>190</v>
       </c>
-      <c r="H250" s="8">
+      <c r="H250" s="6">
         <f t="shared" si="25"/>
         <v>0.80526315789473679</v>
       </c>
-      <c r="I250" s="8">
+      <c r="I250" s="6">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J250" s="8">
+      <c r="J250" s="6">
         <f t="shared" si="27"/>
         <v>0.19473684210526315</v>
       </c>
       <c r="N250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O250">
         <f>F242+G255+G260+G265</f>
-        <v>54158</v>
+        <v>54148</v>
       </c>
       <c r="P250">
         <f>O251+O252+O253+O254</f>
@@ -23250,7 +23831,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -23270,20 +23851,20 @@
       <c r="G251">
         <v>625</v>
       </c>
-      <c r="H251" s="8">
+      <c r="H251" s="6">
         <f t="shared" si="25"/>
         <v>0.90080000000000005</v>
       </c>
-      <c r="I251" s="8">
+      <c r="I251" s="6">
         <f t="shared" si="26"/>
         <v>9.9199999999999997E-2</v>
       </c>
-      <c r="J251" s="8">
+      <c r="J251" s="6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O251">
         <f>C236+C255+C260+C265</f>
@@ -23292,7 +23873,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B252" t="s">
         <v>12</v>
@@ -23312,20 +23893,20 @@
       <c r="G252">
         <v>369</v>
       </c>
-      <c r="H252" s="8">
+      <c r="H252" s="6">
         <f t="shared" si="25"/>
         <v>0.97560975609756095</v>
       </c>
-      <c r="I252" s="8">
+      <c r="I252" s="6">
         <f t="shared" si="26"/>
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="J252" s="8">
+      <c r="J252" s="6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O252">
         <f>D236+D255+D260+D265</f>
@@ -23334,7 +23915,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B253" t="s">
         <v>13</v>
@@ -23355,20 +23936,20 @@
         <f>SUM(C253:E253)</f>
         <v>571</v>
       </c>
-      <c r="H253" s="8">
+      <c r="H253" s="6">
         <f t="shared" si="25"/>
         <v>0.99649737302977237</v>
       </c>
-      <c r="I253" s="8">
+      <c r="I253" s="6">
         <f t="shared" si="26"/>
         <v>3.5026269702276708E-3</v>
       </c>
-      <c r="J253" s="8">
+      <c r="J253" s="6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O253">
         <f>E236+E255+E260+E265</f>
@@ -23377,7 +23958,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B254" t="s">
         <v>14</v>
@@ -23398,20 +23979,20 @@
         <f>SUM(C254:E254)</f>
         <v>285</v>
       </c>
-      <c r="H254" s="8">
+      <c r="H254" s="6">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="I254" s="8">
+      <c r="I254" s="6">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J254" s="8">
+      <c r="J254" s="6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O254">
         <v>64</v>
@@ -23419,7 +24000,7 @@
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B255" t="s">
         <v>218</v>
@@ -23443,15 +24024,15 @@
         <f>SUM(C255:E255)</f>
         <v>2669</v>
       </c>
-      <c r="H255" s="8">
+      <c r="H255" s="6">
         <f t="shared" si="25"/>
         <v>0.74896965155488948</v>
       </c>
-      <c r="I255" s="8">
+      <c r="I255" s="6">
         <f t="shared" si="26"/>
         <v>0.21805919820157363</v>
       </c>
-      <c r="J255" s="8">
+      <c r="J255" s="6">
         <f t="shared" si="27"/>
         <v>3.2971150243536904E-2</v>
       </c>
@@ -23472,19 +24053,19 @@
       <c r="G256" t="s">
         <v>218</v>
       </c>
-      <c r="H256" s="7" t="s">
+      <c r="H256" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I256" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I256" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J256" s="7" t="s">
+      <c r="J256" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -23504,22 +24085,22 @@
       <c r="G257">
         <v>237</v>
       </c>
-      <c r="H257" s="8">
+      <c r="H257" s="6">
         <f>C257/G257</f>
         <v>1</v>
       </c>
-      <c r="I257" s="8">
+      <c r="I257" s="6">
         <f>D257/G257</f>
         <v>0</v>
       </c>
-      <c r="J257" s="8">
+      <c r="J257" s="6">
         <f>E257/G257</f>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -23539,22 +24120,22 @@
       <c r="G258">
         <v>268</v>
       </c>
-      <c r="H258" s="8">
+      <c r="H258" s="6">
         <f>C258/G258</f>
         <v>1</v>
       </c>
-      <c r="I258" s="8">
+      <c r="I258" s="6">
         <f>D258/G258</f>
         <v>0</v>
       </c>
-      <c r="J258" s="8">
+      <c r="J258" s="6">
         <f>E258/G258</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B259" t="s">
         <v>14</v>
@@ -23574,22 +24155,22 @@
       <c r="G259">
         <v>30</v>
       </c>
-      <c r="H259" s="8">
+      <c r="H259" s="6">
         <f>C259/G259</f>
         <v>1</v>
       </c>
-      <c r="I259" s="8">
+      <c r="I259" s="6">
         <f>D259/G259</f>
         <v>0</v>
       </c>
-      <c r="J259" s="8">
+      <c r="J259" s="6">
         <f>E259/G259</f>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B260" t="s">
         <v>218</v>
@@ -23613,15 +24194,15 @@
         <f>SUM(C260:E260)</f>
         <v>535</v>
       </c>
-      <c r="H260" s="8">
+      <c r="H260" s="6">
         <f>C260/G260</f>
         <v>1</v>
       </c>
-      <c r="I260" s="8">
+      <c r="I260" s="6">
         <f>D260/G260</f>
         <v>0</v>
       </c>
-      <c r="J260" s="8">
+      <c r="J260" s="6">
         <f>E260/G260</f>
         <v>0</v>
       </c>
@@ -23642,19 +24223,19 @@
       <c r="G261" t="s">
         <v>218</v>
       </c>
-      <c r="H261" s="7" t="s">
+      <c r="H261" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I261" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I261" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J261" s="7" t="s">
+      <c r="J261" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -23674,22 +24255,22 @@
       <c r="G262">
         <v>1278</v>
       </c>
-      <c r="H262" s="8">
+      <c r="H262" s="6">
         <f>C262/G262</f>
         <v>1</v>
       </c>
-      <c r="I262" s="8">
+      <c r="I262" s="6">
         <f>D262/G262</f>
         <v>0</v>
       </c>
-      <c r="J262" s="8">
+      <c r="J262" s="6">
         <f>E262/G262</f>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B263" t="s">
         <v>12</v>
@@ -23709,22 +24290,22 @@
       <c r="G263">
         <v>118</v>
       </c>
-      <c r="H263" s="8">
+      <c r="H263" s="6">
         <f>C263/G263</f>
         <v>1</v>
       </c>
-      <c r="I263" s="8">
+      <c r="I263" s="6">
         <f>D263/G263</f>
         <v>0</v>
       </c>
-      <c r="J263" s="8">
+      <c r="J263" s="6">
         <f>E263/G263</f>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B264" t="s">
         <v>13</v>
@@ -23744,22 +24325,22 @@
       <c r="G264">
         <v>485</v>
       </c>
-      <c r="H264" s="8">
+      <c r="H264" s="6">
         <f>C264/G264</f>
         <v>1</v>
       </c>
-      <c r="I264" s="8">
+      <c r="I264" s="6">
         <f>D264/G264</f>
         <v>0</v>
       </c>
-      <c r="J264" s="8">
+      <c r="J264" s="6">
         <f>E264/G264</f>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B265" t="s">
         <v>218</v>
@@ -23783,30 +24364,23 @@
         <f>SUM(G262:G264)</f>
         <v>1881</v>
       </c>
-      <c r="H265" s="8">
+      <c r="H265" s="6">
         <f>C265/G265</f>
         <v>1</v>
       </c>
-      <c r="I265" s="8">
+      <c r="I265" s="6">
         <f>D265/G265</f>
         <v>0</v>
       </c>
-      <c r="J265" s="8">
+      <c r="J265" s="6">
         <f>E265/G265</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G202">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23818,10 +24392,10 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -23849,7 +24423,7 @@
       <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="26" t="s">
         <v>90</v>
       </c>
       <c r="K1" t="s">
@@ -23861,13 +24435,13 @@
       <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="26" t="s">
         <v>94</v>
       </c>
       <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="26" t="s">
         <v>96</v>
       </c>
       <c r="R1" t="s">
@@ -23879,7 +24453,7 @@
       <c r="T1" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="26" t="s">
         <v>100</v>
       </c>
     </row>
@@ -23908,7 +24482,7 @@
       <c r="I2">
         <v>71.099999999999994</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="26"/>
       <c r="K2">
         <v>79</v>
       </c>
@@ -23918,11 +24492,11 @@
       <c r="M2">
         <v>30.09</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="26"/>
       <c r="O2">
         <v>13.9245540487162</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="26"/>
       <c r="Q2" t="s">
         <v>102</v>
       </c>
@@ -23935,7 +24509,7 @@
       <c r="T2">
         <v>2.5</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -23962,7 +24536,7 @@
       <c r="I3">
         <v>71</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="26"/>
       <c r="K3">
         <v>77</v>
       </c>
@@ -23972,11 +24546,11 @@
       <c r="M3">
         <v>30.08</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="26"/>
       <c r="O3">
         <v>13.260722357996301</v>
       </c>
-      <c r="P3" s="1"/>
+      <c r="P3" s="26"/>
       <c r="Q3" t="s">
         <v>104</v>
       </c>
@@ -23989,7 +24563,7 @@
       <c r="T3">
         <v>2.7</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="26"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -24016,7 +24590,7 @@
       <c r="I4">
         <v>64.7</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="26"/>
       <c r="K4">
         <v>74</v>
       </c>
@@ -24026,11 +24600,11 @@
       <c r="M4">
         <v>30.07</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="26"/>
       <c r="O4">
         <v>12.378173141821801</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="26"/>
       <c r="Q4" t="s">
         <v>106</v>
       </c>
@@ -24043,7 +24617,7 @@
       <c r="T4">
         <v>3.1</v>
       </c>
-      <c r="U4" s="1"/>
+      <c r="U4" s="26"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -24070,7 +24644,7 @@
       <c r="I5">
         <v>57</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="26"/>
       <c r="K5">
         <v>66</v>
       </c>
@@ -24080,11 +24654,11 @@
       <c r="M5">
         <v>30.12</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="26"/>
       <c r="O5">
         <v>11.4504747931576</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="26"/>
       <c r="Q5" t="s">
         <v>108</v>
       </c>
@@ -24097,7 +24671,7 @@
       <c r="T5">
         <v>3.6</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="U5" s="26"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -24124,7 +24698,7 @@
       <c r="I6">
         <v>43.3</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="26"/>
       <c r="K6">
         <v>56</v>
       </c>
@@ -24134,11 +24708,11 @@
       <c r="M6">
         <v>30.11</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="26"/>
       <c r="O6">
         <v>11.9669237717593</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="26"/>
       <c r="Q6" t="s">
         <v>110</v>
       </c>
@@ -24151,7 +24725,7 @@
       <c r="T6">
         <v>4.8</v>
       </c>
-      <c r="U6" s="1"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -24178,7 +24752,7 @@
       <c r="I7">
         <v>48.6</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="26"/>
       <c r="K7">
         <v>61</v>
       </c>
@@ -24188,11 +24762,11 @@
       <c r="M7">
         <v>30.08</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="26"/>
       <c r="O7">
         <v>12.899364939203901</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="26"/>
       <c r="Q7" t="s">
         <v>112</v>
       </c>
@@ -24205,7 +24779,7 @@
       <c r="T7">
         <v>4.5</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -24232,7 +24806,7 @@
       <c r="I8">
         <v>64.2</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="26"/>
       <c r="K8">
         <v>74</v>
       </c>
@@ -24242,11 +24816,11 @@
       <c r="M8">
         <v>30.06</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="26"/>
       <c r="O8">
         <v>13.687570434662801</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="26"/>
       <c r="Q8" t="s">
         <v>114</v>
       </c>
@@ -24259,7 +24833,7 @@
       <c r="T8">
         <v>3</v>
       </c>
-      <c r="U8" s="1"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -24286,7 +24860,7 @@
       <c r="I9">
         <v>69.2</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="26"/>
       <c r="K9">
         <v>77</v>
       </c>
@@ -24296,11 +24870,11 @@
       <c r="M9">
         <v>30.05</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="26"/>
       <c r="O9">
         <v>14.0953325901173</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="26"/>
       <c r="Q9" t="s">
         <v>116</v>
       </c>
@@ -24313,7 +24887,7 @@
       <c r="T9">
         <v>2.6</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -24340,7 +24914,7 @@
       <c r="I10">
         <v>71.3</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="26"/>
       <c r="K10">
         <v>79</v>
       </c>
@@ -24350,7 +24924,7 @@
       <c r="M10">
         <v>30.14</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="26"/>
       <c r="O10">
         <v>13.9245540487162</v>
       </c>
@@ -24392,7 +24966,7 @@
       <c r="I11">
         <v>70.5</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="26"/>
       <c r="K11">
         <v>77</v>
       </c>
@@ -24402,7 +24976,7 @@
       <c r="M11">
         <v>30.13</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="26"/>
       <c r="O11">
         <v>13.260722357996301</v>
       </c>
@@ -24444,7 +25018,7 @@
       <c r="I12">
         <v>71.2</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="26"/>
       <c r="K12">
         <v>78</v>
       </c>
@@ -24454,7 +25028,7 @@
       <c r="M12">
         <v>30.11</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="26"/>
       <c r="O12">
         <v>12.378173141821801</v>
       </c>
@@ -24496,7 +25070,7 @@
       <c r="I13">
         <v>58.7</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="26"/>
       <c r="K13">
         <v>67</v>
       </c>
@@ -24506,7 +25080,7 @@
       <c r="M13">
         <v>30.12</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="26"/>
       <c r="O13">
         <v>11.4504747931576</v>
       </c>
@@ -24548,7 +25122,7 @@
       <c r="I14">
         <v>42.3</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="26"/>
       <c r="K14">
         <v>52</v>
       </c>
@@ -24599,7 +25173,7 @@
       <c r="I15">
         <v>41.2</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="26"/>
       <c r="K15">
         <v>51</v>
       </c>
@@ -24650,7 +25224,7 @@
       <c r="I16">
         <v>37.5</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="26"/>
       <c r="K16">
         <v>48</v>
       </c>
@@ -25292,11 +25866,11 @@
       <c r="F29">
         <v>11.03</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="1"/>
       <c r="H29">
         <v>60.3</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="1"/>
       <c r="K29">
         <v>52</v>
       </c>
@@ -26435,7 +27009,7 @@
       <c r="D52" t="s">
         <v>201</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="2"/>
       <c r="F52">
         <v>4.26</v>
       </c>
@@ -26486,7 +27060,7 @@
       <c r="D53" t="s">
         <v>203</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="2"/>
       <c r="F53">
         <v>5.52</v>
       </c>
@@ -26537,7 +27111,7 @@
       <c r="D54" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="2"/>
       <c r="F54">
         <v>5.6</v>
       </c>
@@ -26588,7 +27162,7 @@
       <c r="D55" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="2"/>
       <c r="F55">
         <v>6.64</v>
       </c>
@@ -35160,6 +35734,7 @@
     <mergeCell ref="P1:P9"/>
     <mergeCell ref="U1:U9"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>